--- a/data/trans_dic/P23_1_2016_2023_R2-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P23_1_2016_2023_R2-Dificultad-trans_dic.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.175063009911378</v>
+        <v>0.1745425897030035</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1429947587921669</v>
+        <v>0.1473768889000342</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.07172247148895243</v>
+        <v>0.07121201287815676</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.06480777934270372</v>
+        <v>0.06350592511159675</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1247863892834155</v>
+        <v>0.1260497201129434</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1054239396173358</v>
+        <v>0.1067488988529933</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2228469511405059</v>
+        <v>0.2215007340735081</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2108729694421842</v>
+        <v>0.2155637044420409</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.105311479055274</v>
+        <v>0.1026102315214086</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1024944678005515</v>
+        <v>0.1007790957595925</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1543840870648794</v>
+        <v>0.1546616618313814</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1426975719575511</v>
+        <v>0.1463635731395753</v>
       </c>
     </row>
     <row r="7">
@@ -694,7 +694,7 @@
         <v>0.1947147510690312</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.2023848903366471</v>
+        <v>0.2023848903366472</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.1066377900697038</v>
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.169590349320201</v>
+        <v>0.171556935172461</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1801129029301154</v>
+        <v>0.1788285087904409</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.08783954017667239</v>
+        <v>0.08872062349541074</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.06580381784863949</v>
+        <v>0.06592190465709913</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1321378468040613</v>
+        <v>0.1334711589539975</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1221930023607746</v>
+        <v>0.1231851638769541</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2239794692736617</v>
+        <v>0.2251275402852766</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2308548041234763</v>
+        <v>0.2299310724991213</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1278945494938035</v>
+        <v>0.1292318914841492</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.09327535050949783</v>
+        <v>0.09396666462257466</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1641283882993839</v>
+        <v>0.1652356136852703</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1510960568451213</v>
+        <v>0.1505424704994598</v>
       </c>
     </row>
     <row r="10">
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1900928728554032</v>
+        <v>0.1923618948980116</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.139223166212914</v>
+        <v>0.1369767249576094</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1022289204171384</v>
+        <v>0.1031979165948889</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.07423076280908457</v>
+        <v>0.07498897434223996</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1549847206958488</v>
+        <v>0.1555082137537241</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.111003793537484</v>
+        <v>0.1105053623701333</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2501807860017557</v>
+        <v>0.2523246480226394</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1826735328164419</v>
+        <v>0.1816056025533028</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1516187245070674</v>
+        <v>0.1514967085922627</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1051376553970268</v>
+        <v>0.1038699709240632</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1931593883422497</v>
+        <v>0.1934983896551675</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1374819525953159</v>
+        <v>0.1369978564405469</v>
       </c>
     </row>
     <row r="13">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.186268335658019</v>
+        <v>0.1846853908029147</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1877733036140449</v>
+        <v>0.1874167230417259</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1150621980861398</v>
+        <v>0.1146913167325126</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1251411071105486</v>
+        <v>0.1257001319654258</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1646840367673201</v>
+        <v>0.1612962191753466</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.164173762149343</v>
+        <v>0.1654282751957011</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2628140964652694</v>
+        <v>0.2619652472259124</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2424236467335965</v>
+        <v>0.2401739776198437</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1816416569366388</v>
+        <v>0.1806700212349122</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1677083833281609</v>
+        <v>0.1653291049484279</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.213514450897585</v>
+        <v>0.212060913574681</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1984744566418905</v>
+        <v>0.1969355456290938</v>
       </c>
     </row>
     <row r="16">
@@ -940,7 +940,7 @@
         <v>0.207083842355846</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.1891384994067222</v>
+        <v>0.1891384994067221</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.1091043235794684</v>
@@ -963,22 +963,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1940288947375951</v>
+        <v>0.1938232729864128</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1766279622258969</v>
+        <v>0.176488290213265</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.09858624738728144</v>
+        <v>0.09951981138984207</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.09001531922737627</v>
+        <v>0.0899097272150477</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1478871098814675</v>
+        <v>0.1488396183214004</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1348609751234819</v>
+        <v>0.1346196128249406</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2225525684764522</v>
+        <v>0.2209051667424957</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2031219086776201</v>
+        <v>0.2026207039223088</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1203775849065741</v>
+        <v>0.1205292030166798</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1062271952463133</v>
+        <v>0.1065370363245727</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1656902333508992</v>
+        <v>0.1666990116453083</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1499791715050358</v>
+        <v>0.1505599990919741</v>
       </c>
     </row>
     <row r="19">
@@ -1191,22 +1191,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>197471</v>
+        <v>196884</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>71317</v>
+        <v>73503</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>90259</v>
+        <v>89617</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>40413</v>
+        <v>39601</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>297796</v>
+        <v>300811</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>118319</v>
+        <v>119806</v>
       </c>
     </row>
     <row r="7">
@@ -1217,22 +1217,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>251371</v>
+        <v>249852</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>105171</v>
+        <v>107510</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>132529</v>
+        <v>129130</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>63914</v>
+        <v>62844</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>368430</v>
+        <v>369092</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>160152</v>
+        <v>164267</v>
       </c>
     </row>
     <row r="8">
@@ -1299,22 +1299,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>154128</v>
+        <v>155915</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>172933</v>
+        <v>171700</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>88124</v>
+        <v>89008</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>73427</v>
+        <v>73559</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>252655</v>
+        <v>255205</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>253671</v>
+        <v>255731</v>
       </c>
     </row>
     <row r="11">
@@ -1325,22 +1325,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>203558</v>
+        <v>204602</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>221652</v>
+        <v>220765</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>128308</v>
+        <v>129650</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>104081</v>
+        <v>104853</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>313823</v>
+        <v>315940</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>313673</v>
+        <v>312524</v>
       </c>
     </row>
     <row r="12">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>156223</v>
+        <v>158087</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>145694</v>
+        <v>143343</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>78713</v>
+        <v>79459</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>77767</v>
+        <v>78562</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>246704</v>
+        <v>247537</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>232455</v>
+        <v>231412</v>
       </c>
     </row>
     <row r="15">
@@ -1433,22 +1433,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>205604</v>
+        <v>207366</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>191164</v>
+        <v>190046</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>116742</v>
+        <v>116648</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>110147</v>
+        <v>108819</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>307470</v>
+        <v>308009</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>287904</v>
+        <v>286890</v>
       </c>
     </row>
     <row r="16">
@@ -1515,22 +1515,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>94382</v>
+        <v>93580</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>183039</v>
+        <v>182691</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>56346</v>
+        <v>56164</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>113224</v>
+        <v>113730</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>164091</v>
+        <v>160715</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>308574</v>
+        <v>310932</v>
       </c>
     </row>
     <row r="19">
@@ -1541,22 +1541,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>133168</v>
+        <v>132738</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>236311</v>
+        <v>234118</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>88950</v>
+        <v>88474</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>151738</v>
+        <v>149585</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>212745</v>
+        <v>211297</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>373044</v>
+        <v>370152</v>
       </c>
     </row>
     <row r="20">
@@ -1623,22 +1623,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>652974</v>
+        <v>652282</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>614691</v>
+        <v>614204</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>347157</v>
+        <v>350444</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>332322</v>
+        <v>331932</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>1018454</v>
+        <v>1025014</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>967221</v>
+        <v>965490</v>
       </c>
     </row>
     <row r="23">
@@ -1649,22 +1649,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>748966</v>
+        <v>743422</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>706893</v>
+        <v>705149</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>423892</v>
+        <v>424426</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>392174</v>
+        <v>393318</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>1141059</v>
+        <v>1148006</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>1075648</v>
+        <v>1079814</v>
       </c>
     </row>
     <row r="24">
